--- a/ADdata/validation/NewValidation/10000SimulatedDatasets/pvalues for phylum and species.xlsx
+++ b/ADdata/validation/NewValidation/10000SimulatedDatasets/pvalues for phylum and species.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Control</t>
   </si>
@@ -63,12 +63,30 @@
       <t>0.05</t>
     </r>
   </si>
+  <si>
+    <t>GENUS</t>
+  </si>
+  <si>
+    <t>AD Datasets</t>
+  </si>
+  <si>
+    <t>Rat Data</t>
+  </si>
+  <si>
+    <t>Day 2 Baseline</t>
+  </si>
+  <si>
+    <t>Day 4 Controls</t>
+  </si>
+  <si>
+    <t>Day 4 Experimentals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +104,15 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,19 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -437,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,159 +480,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.111</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.1042</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.2868</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.26790000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.49969999999999998</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.28270000000000001</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.20469999999999999</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="18.75">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <f>0.02485*2</f>
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <f>0.09575*2</f>
+        <v>0.1915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <f>0.23235*2</f>
+        <v>0.4647</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
+  <mergeCells count="9">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
